--- a/biology/Médecine/Maladie_de_surcharge_en_esters_de_cholestérol/Maladie_de_surcharge_en_esters_de_cholestérol.xlsx
+++ b/biology/Médecine/Maladie_de_surcharge_en_esters_de_cholestérol/Maladie_de_surcharge_en_esters_de_cholestérol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_de_surcharge_en_esters_de_cholest%C3%A9rol</t>
+          <t>Maladie_de_surcharge_en_esters_de_cholestérol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de surcharge en esters de cholestérol est une maladie génétique consécutive à une mutation sur le gène LIPA avec déficit en lipase acide lysosomale. Sa forme grave et précoce correspond à la maladie de Wolman. Il s'agit de l'une des causes de l'hypercholestérolémie familiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_de_surcharge_en_esters_de_cholest%C3%A9rol</t>
+          <t>Maladie_de_surcharge_en_esters_de_cholestérol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en lipase acide lysosomale entraîne une accumulation d'esters de cholestérol et de triglycérides, avec dégradation du foie débutant par une stéatose et conduisant à une insuffisance hépatocellulaire et une cirrhose.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_de_surcharge_en_esters_de_cholest%C3%A9rol</t>
+          <t>Maladie_de_surcharge_en_esters_de_cholestérol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie concernerait entre un patient sur 90 000 et un patient sur 170 000[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie concernerait entre un patient sur 90 000 et un patient sur 170 000.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_de_surcharge_en_esters_de_cholest%C3%A9rol</t>
+          <t>Maladie_de_surcharge_en_esters_de_cholestérol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hépatomégalie (gros foie) est constante et la splénomégalie (grosse rate) fréquente[2].
-La biologie montre une augmentation du LDL cholestérol, des triglycérides, une diminution du HDL cholestérol, des perturbations du bilan hépatique (augmentation des transaminases)[2].
-La biopsie hépatique montre une stéatose micro védiculaire avec fibrose[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hépatomégalie (gros foie) est constante et la splénomégalie (grosse rate) fréquente.
+La biologie montre une augmentation du LDL cholestérol, des triglycérides, une diminution du HDL cholestérol, des perturbations du bilan hépatique (augmentation des transaminases).
+La biopsie hépatique montre une stéatose micro védiculaire avec fibrose.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_de_surcharge_en_esters_de_cholest%C3%A9rol</t>
+          <t>Maladie_de_surcharge_en_esters_de_cholestérol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pronostic est essentiellement hépatique avec insuffisance hépatocellulaire et cirrhose. Il existe également un athérome précoce[2] avec les complications y attenant (infarctus du myocarde, accident vasculaire-cérébral…).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pronostic est essentiellement hépatique avec insuffisance hépatocellulaire et cirrhose. Il existe également un athérome précoce avec les complications y attenant (infarctus du myocarde, accident vasculaire-cérébral…).
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_de_surcharge_en_esters_de_cholest%C3%A9rol</t>
+          <t>Maladie_de_surcharge_en_esters_de_cholestérol</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,10 +657,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il repose sur la prescription de statines qui diminuent ainsi le taux sanguin de cholestérol[1]. Une transplantation hépatique est parfois proposée[4] mais avec un risque théorique de récidive sur le greffon.
-L’administration hebdomadaire de sébélipase alfa (en), une enzyme recombinante en cours d'étude[Quand ?] et remplaçant la lipase acide lysosomale, permet une amélioration du bilan lipidique et la réduction de la surcharge hépatique en graisse[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il repose sur la prescription de statines qui diminuent ainsi le taux sanguin de cholestérol. Une transplantation hépatique est parfois proposée mais avec un risque théorique de récidive sur le greffon.
+L’administration hebdomadaire de sébélipase alfa (en), une enzyme recombinante en cours d'étude[Quand ?] et remplaçant la lipase acide lysosomale, permet une amélioration du bilan lipidique et la réduction de la surcharge hépatique en graisse.
 </t>
         </is>
       </c>
